--- a/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_平衡性检验.xlsx
+++ b/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_平衡性检验.xlsx
@@ -505,19 +505,19 @@
         <v>1.032650699690565e-31</v>
       </c>
       <c r="F2" t="n">
-        <v>10.38328932475452</v>
+        <v>10.35198327871034</v>
       </c>
       <c r="G2" t="n">
-        <v>10.40036731364919</v>
+        <v>10.36185539446991</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.605984523884274</v>
+        <v>-1.536559316093307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4870378405801746</v>
+        <v>0.6926189832070526</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4324419133001</v>
+        <v>103.7927426109109</v>
       </c>
     </row>
     <row r="3">
@@ -539,19 +539,19 @@
         <v>3.237490782957203e-29</v>
       </c>
       <c r="F3" t="n">
-        <v>5.955304252763852</v>
+        <v>5.904787210677476</v>
       </c>
       <c r="G3" t="n">
-        <v>5.944046135957539</v>
+        <v>5.899130534280074</v>
       </c>
       <c r="H3" t="n">
-        <v>1.287191040282719</v>
+        <v>0.6634096079401802</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7313645690469188</v>
+        <v>0.8644798017007862</v>
       </c>
       <c r="J3" t="n">
-        <v>96.68031300016841</v>
+        <v>98.2890556396674</v>
       </c>
     </row>
     <row r="4">
@@ -573,19 +573,19 @@
         <v>2.674328111445015e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>1.02345133847151</v>
+        <v>1.004408280994373</v>
       </c>
       <c r="G4" t="n">
-        <v>1.045140205272692</v>
+        <v>1.036362352511719</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.857477631110493</v>
+        <v>-5.657752431758895</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3035979572333226</v>
+        <v>0.1455993878480308</v>
       </c>
       <c r="J4" t="n">
-        <v>117.6198457064184</v>
+        <v>125.842981975765</v>
       </c>
     </row>
     <row r="5">
@@ -607,19 +607,19 @@
         <v>3.713046201589721e-18</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01848859770256681</v>
+        <v>0.01801502541402735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01722660503345589</v>
+        <v>0.01694064767784055</v>
       </c>
       <c r="H5" t="n">
-        <v>7.228995464121957</v>
+        <v>6.155327175917671</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05392694034197121</v>
+        <v>0.113379788711362</v>
       </c>
       <c r="J5" t="n">
-        <v>76.12578916582</v>
+        <v>79.67164601491896</v>
       </c>
     </row>
     <row r="6">
@@ -641,19 +641,19 @@
         <v>1.072538265264596e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.850290900480982</v>
+        <v>2.855328727192957</v>
       </c>
       <c r="G6" t="n">
-        <v>2.884599396749335</v>
+        <v>2.887136690582552</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.766307683492332</v>
+        <v>-8.148014956120477</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01943957798112205</v>
+        <v>0.03613861110496926</v>
       </c>
       <c r="J6" t="n">
-        <v>-60.44045858988339</v>
+        <v>-63.23061581857614</v>
       </c>
     </row>
   </sheetData>

--- a/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_平衡性检验.xlsx
+++ b/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_平衡性检验.xlsx
@@ -505,19 +505,19 @@
         <v>1.032650699690565e-31</v>
       </c>
       <c r="F2" t="n">
-        <v>10.35198327871034</v>
+        <v>10.38328932475452</v>
       </c>
       <c r="G2" t="n">
-        <v>10.36185539446991</v>
+        <v>10.40036731364919</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.536559316093307</v>
+        <v>-2.605984523884274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6926189832070526</v>
+        <v>0.4870378405801746</v>
       </c>
       <c r="J2" t="n">
-        <v>103.7927426109109</v>
+        <v>106.4324419133001</v>
       </c>
     </row>
     <row r="3">
@@ -539,19 +539,19 @@
         <v>3.237490782957203e-29</v>
       </c>
       <c r="F3" t="n">
-        <v>5.904787210677476</v>
+        <v>5.955304252763852</v>
       </c>
       <c r="G3" t="n">
-        <v>5.899130534280074</v>
+        <v>5.944046135957539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6634096079401802</v>
+        <v>1.287191040282719</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8644798017007862</v>
+        <v>0.7313645690469188</v>
       </c>
       <c r="J3" t="n">
-        <v>98.2890556396674</v>
+        <v>96.68031300016841</v>
       </c>
     </row>
     <row r="4">
@@ -573,19 +573,19 @@
         <v>2.674328111445015e-10</v>
       </c>
       <c r="F4" t="n">
-        <v>1.004408280994373</v>
+        <v>1.02345133847151</v>
       </c>
       <c r="G4" t="n">
-        <v>1.036362352511719</v>
+        <v>1.045140205272692</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.657752431758895</v>
+        <v>-3.857477631110493</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1455993878480308</v>
+        <v>0.3035979572333226</v>
       </c>
       <c r="J4" t="n">
-        <v>125.842981975765</v>
+        <v>117.6198457064184</v>
       </c>
     </row>
     <row r="5">
@@ -607,19 +607,19 @@
         <v>3.713046201589721e-18</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01801502541402735</v>
+        <v>0.01848859770256681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01694064767784055</v>
+        <v>0.01722660503345589</v>
       </c>
       <c r="H5" t="n">
-        <v>6.155327175917671</v>
+        <v>7.228995464121957</v>
       </c>
       <c r="I5" t="n">
-        <v>0.113379788711362</v>
+        <v>0.05392694034197121</v>
       </c>
       <c r="J5" t="n">
-        <v>79.67164601491896</v>
+        <v>76.12578916582</v>
       </c>
     </row>
     <row r="6">
@@ -641,19 +641,19 @@
         <v>1.072538265264596e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.855328727192957</v>
+        <v>2.850290900480982</v>
       </c>
       <c r="G6" t="n">
-        <v>2.887136690582552</v>
+        <v>2.884599396749335</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.148014956120477</v>
+        <v>-8.766307683492332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03613861110496926</v>
+        <v>0.01943957798112205</v>
       </c>
       <c r="J6" t="n">
-        <v>-63.23061581857614</v>
+        <v>-60.44045858988339</v>
       </c>
     </row>
   </sheetData>
